--- a/forecast_summary_B0BHTLF2X5.xlsx
+++ b/forecast_summary_B0BHTLF2X5.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45620</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>18.70942395263096</v>
       </c>
       <c r="D2" t="n">
-        <v>39.14896898705348</v>
+        <v>41.03593134701827</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>16.1859297702934</v>
       </c>
       <c r="D3" t="n">
-        <v>37.35705831681428</v>
+        <v>38.28156898957629</v>
       </c>
       <c r="E3" t="n">
         <v>11</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>10.83386374746526</v>
       </c>
       <c r="D4" t="n">
-        <v>33.37866446893875</v>
+        <v>32.98980530615274</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,13 +604,13 @@
         <v>45641</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>5.593206597989615</v>
       </c>
       <c r="D5" t="n">
-        <v>28.22947479059342</v>
+        <v>26.34647759050094</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>2.447408663895195</v>
       </c>
       <c r="D6" t="n">
-        <v>24.80016783563101</v>
+        <v>24.52326573029588</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>1.254637926318834</v>
       </c>
       <c r="D7" t="n">
-        <v>23.91049399648827</v>
+        <v>22.41760815559207</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>0.75833121435706</v>
       </c>
       <c r="D8" t="n">
-        <v>22.9646725204307</v>
+        <v>24.66698618884453</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45669</v>
       </c>
       <c r="B9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>0.2592809759801968</v>
       </c>
       <c r="D9" t="n">
-        <v>22.56864381955807</v>
+        <v>23.70564662346747</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>0.01648365527718325</v>
       </c>
       <c r="D10" t="n">
-        <v>20.74903190353375</v>
+        <v>21.01561522548057</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45683</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>0.3204953496960268</v>
       </c>
       <c r="D11" t="n">
-        <v>21.17873246381475</v>
+        <v>24.29985082696883</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.7849990231538823</v>
       </c>
       <c r="D12" t="n">
-        <v>23.35822360758262</v>
+        <v>23.73080688400569</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>0.787703984952278</v>
       </c>
       <c r="D13" t="n">
-        <v>22.87526508818606</v>
+        <v>22.83077655124957</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -914,13 +955,13 @@
         <v>45704</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
         <v>0.2704221941559872</v>
       </c>
       <c r="D14" t="n">
-        <v>22.76558835036586</v>
+        <v>23.65468929886031</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>-0.2939474370635886</v>
       </c>
       <c r="D15" t="n">
-        <v>22.25525929901199</v>
+        <v>23.06089362590101</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45718</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
         <v>-0.6462076301044029</v>
       </c>
       <c r="D16" t="n">
-        <v>23.06350353443491</v>
+        <v>20.81974709519388</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-1.049075470129565</v>
       </c>
       <c r="D17" t="n">
-        <v>22.19496159898202</v>
+        <v>21.62411171459797</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45732</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
         <v>-1.728484384910991</v>
       </c>
       <c r="D18" t="n">
-        <v>18.19833535975672</v>
+        <v>20.59110081729518</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>-2.358759300200075</v>
       </c>
       <c r="D19" t="n">
-        <v>20.99517828059233</v>
+        <v>22.04027822619848</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45746</v>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>-2.454831567603827</v>
       </c>
       <c r="D20" t="n">
-        <v>18.77047198234215</v>
+        <v>21.47819253336119</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-2.141761118907877</v>
       </c>
       <c r="D21" t="n">
-        <v>20.90407865597748</v>
+        <v>21.03045973692277</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z790 A ELITE AX DDR4</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1445,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
